--- a/tests/monthly_cashsales_record/data.input/monthly.cashsales.record.sample.xlsx
+++ b/tests/monthly_cashsales_record/data.input/monthly.cashsales.record.sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\mlcmi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\cardeco\tests\monthly_cashsales_record\data.input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{313A7F3E-B800-4FD3-AD07-61246FAD07F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B054091-D9E1-4745-8298-D8127A440A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFDD22F8-02DF-4E0F-9598-AFB6056EA166}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>TRACKING NUMBER</t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t xml:space="preserve">577052873750055046	</t>
+  </si>
+  <si>
+    <t>576559840027641520</t>
+  </si>
+  <si>
+    <t>CARGO TRAY (PERODUA) MYVI NEW (2017) (LOCAL) (BTK 010)</t>
+  </si>
+  <si>
+    <t>IN-0806-17</t>
+  </si>
+  <si>
+    <t>576563208448935422</t>
+  </si>
+  <si>
+    <t>HT-CLASSIC PVC MAT BAKUL MOTOR (36MM X30MM) (13MM) - BLACK GREY</t>
+  </si>
+  <si>
+    <t>CM-36X30-BG</t>
   </si>
 </sst>
 </file>
@@ -132,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,13 +166,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +194,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -191,35 +236,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,6 +275,68 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -549,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4066C0F-500E-4012-907C-8B2F015741E8}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,187 +671,351 @@
     <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="10">
+      <c r="B2" s="2">
         <v>685309128934</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="3">
         <v>44984</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="4">
         <v>44980</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="6">
         <v>41.2</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="14">
+      <c r="K2" s="6">
         <v>5.6</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="10">
+      <c r="B3" s="2">
         <v>685376584942</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="3">
         <v>44984</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="4">
         <v>44983</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="6">
         <v>51.2</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="14">
+      <c r="K3" s="6">
         <v>5.6</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="12">
+      <c r="D4" s="4">
         <v>44983</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="6">
         <v>65</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="14">
+      <c r="K4" s="6">
         <v>6.3</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
+        <v>682832606037</v>
+      </c>
+      <c r="C5" s="15">
+        <v>45215</v>
+      </c>
+      <c r="D5" s="16">
+        <v>45213</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="18">
+        <v>43.5</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18">
+        <v>6.22</v>
+      </c>
+      <c r="N5" s="18">
+        <v>127.68</v>
+      </c>
+      <c r="O5" s="19">
+        <v>127.68</v>
+      </c>
+      <c r="P5" s="20">
+        <v>3.4000000000000057</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+    </row>
+    <row r="6" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <v>682832606037</v>
+      </c>
+      <c r="C6" s="15">
+        <v>45215</v>
+      </c>
+      <c r="D6" s="16">
+        <v>45213</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="18">
+        <v>43.5</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
+        <v>682832606037</v>
+      </c>
+      <c r="C7" s="15">
+        <v>45215</v>
+      </c>
+      <c r="D7" s="16">
+        <v>45213</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="18">
+        <v>46.900000000000006</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>682878080245</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45223</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45220</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="6">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="N8" s="6">
+        <v>19.47</v>
+      </c>
+      <c r="O8" s="8">
+        <v>19.47</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>682878080245</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45223</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45220</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="6">
+        <v>10</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E17:E18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>